--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/single-image.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/single-image.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C95E7E-0656-477C-ADDA-66BDC7DD0A8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E3C46B-19D1-4CA7-806E-EDC87E5B5F01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{85737D11-6445-440C-97F1-8E2EC98962E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{85737D11-6445-440C-97F1-8E2EC98962E9}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="8" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="Channel" sheetId="11" r:id="rId4"/>
     <sheet name="Color" sheetId="12" r:id="rId5"/>
     <sheet name="Binary_Data" sheetId="13" r:id="rId6"/>
-    <sheet name="Unit" sheetId="14" r:id="rId7"/>
-    <sheet name="size" sheetId="15" r:id="rId8"/>
+    <sheet name="size" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t/>
   </si>
@@ -373,18 +372,6 @@
   </si>
   <si>
     <t>[size:10000um]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -395,63 +382,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -479,10 +409,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -513,10 +439,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/single-image/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel:0</t>
   </si>
   <si>
@@ -527,6 +449,17 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -534,7 +467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,13 +496,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -619,11 +545,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,14 +873,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -970,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -978,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1010,31 +936,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -1042,15 +968,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1058,7 +984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1066,12 +992,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1086,18 +1012,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +1043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1129,7 +1055,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1167,12 +1093,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
@@ -1196,21 +1122,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1198,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1314,7 +1240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1358,12 +1284,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>83</v>
@@ -1411,16 +1337,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1368,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1468,12 +1394,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
@@ -1491,15 +1417,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1510,14 +1436,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1526,7 +1452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1537,7 +1463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -1557,17 +1483,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1519,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1608,7 +1534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1622,10 +1548,10 @@
         <v>79</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
@@ -1646,154 +1572,51 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FB7ABB-33BF-48E7-9768-06A9D6AF95B9}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EC48D4-3A4F-441D-9736-B7F7390ECD64}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1802,10 +1625,10 @@
         <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1816,18 +1639,18 @@
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>122</v>
+      <c r="D5" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/single-image.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/single-image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E3C46B-19D1-4CA7-806E-EDC87E5B5F01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE4FF9-8E60-4158-B895-FC0FF2EAB54A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{85737D11-6445-440C-97F1-8E2EC98962E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t/>
   </si>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:51:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -211,10 +207,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>channel</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -230,10 +222,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -244,10 +232,6 @@
   </si>
   <si>
     <t>:Color</t>
-  </si>
-  <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>[color:-2147483648]</t>
@@ -460,6 +444,42 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/single-image/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/single-image/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/single-image/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -869,7 +889,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -938,31 +958,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>41</v>
@@ -970,10 +990,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -986,23 +1006,48 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>121</v>
+      <c r="B18" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1098,16 +1143,16 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1124,15 +1169,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1147,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
@@ -1174,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>33</v>
@@ -1207,37 +1252,37 @@
         <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1245,22 +1290,22 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -1278,30 +1323,30 @@
         <v>38</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1319,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1385,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -1351,13 +1396,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1377,7 +1422,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1385,24 +1430,24 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1430,10 +1475,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1449,7 +1494,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1457,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
@@ -1465,7 +1510,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1486,7 +1531,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -1498,16 +1543,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1525,13 +1570,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1539,27 +1584,27 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1593,13 +1638,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1607,13 +1652,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1622,10 +1667,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1633,24 +1678,24 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/single-image.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/single-image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE4FF9-8E60-4158-B895-FC0FF2EAB54A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5D770-262F-4E55-9576-F0139FB69327}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{85737D11-6445-440C-97F1-8E2EC98962E9}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -96,24 +93,12 @@
     <t>rdfs:label</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -199,10 +184,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -211,29 +192,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -262,19 +226,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
@@ -300,59 +251,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0000117</t>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>[size:10000um]</t>
@@ -480,6 +379,118 @@
   </si>
   <si>
     <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -902,146 +913,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1062,97 +1073,97 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1185,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -1183,51 +1194,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1245,108 +1256,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1364,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1393,21 +1404,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1415,39 +1426,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1472,45 +1483,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1532,7 +1543,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1540,24 +1551,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1566,45 +1577,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1635,67 +1646,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
